--- a/excel/choose.xlsx
+++ b/excel/choose.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A6F1D6-682A-4E41-9CE9-CAA407B277C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948D1291-9D9D-442A-B2D2-33EA95287219}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,8 +19,47 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{0AB1BA61-5FE3-4432-8D6E-0E93EB243D03}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1.story
+2.rest
+3.battle
+4.random</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -106,6 +145,26 @@
   </si>
   <si>
     <t>[奇遇]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[战斗]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jumpType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[交钱]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[继续]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70001,80006</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -113,7 +172,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +191,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="华文新魏"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -446,25 +520,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="57.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="35.88671875" customWidth="1"/>
-    <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="35.88671875" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -472,25 +547,28 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,25 +576,28 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>90001</v>
       </c>
@@ -524,15 +605,18 @@
         <v>18</v>
       </c>
       <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
         <v>80002</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>90002</v>
       </c>
@@ -540,15 +624,18 @@
         <v>7</v>
       </c>
       <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
         <v>80002</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>90003</v>
       </c>
@@ -556,15 +643,18 @@
         <v>8</v>
       </c>
       <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
         <v>80002</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>90004</v>
       </c>
@@ -572,195 +662,227 @@
         <v>17</v>
       </c>
       <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
         <v>80002</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>90005</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>90006</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>80005</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>90007</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>90008</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="2"/>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>90009</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
+      <c r="C11" s="1"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="2"/>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>90010</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
+      <c r="C12" s="1"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="2"/>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>90011</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
+      <c r="C13" s="1"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="2"/>
       <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>90012</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
+      <c r="C14" s="1"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="2"/>
       <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>90013</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
+      <c r="C15" s="1"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="2"/>
       <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>90014</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
+      <c r="C16" s="1"/>
       <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>90015</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
+      <c r="C17" s="1"/>
       <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>90016</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
+      <c r="C18" s="1"/>
       <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>90017</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
+      <c r="C19" s="1"/>
       <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>90018</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>90019</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>90020</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>90021</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>90022</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>90023</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>90024</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>90025</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>90026</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>90027</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>90028</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>90029</v>
       </c>
@@ -769,5 +891,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/excel/choose.xlsx
+++ b/excel/choose.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948D1291-9D9D-442A-B2D2-33EA95287219}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36361ED3-3B53-4566-A679-C3D6583D1970}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,12 +54,90 @@
         </r>
       </text>
     </comment>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{DF072E46-4700-4196-B6FB-53234E1B0DAB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+2001:身上物品id大于c
+2002:主人公属性大于x</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{EF57869B-668D-43AA-98CF-4F68F32AED3C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1001:增加主人公最大血量
+1002:增加银两
+1003:增加物品
+1004:增加主人公属性
+1005:增加个帮手
+1006:增加武学卡
+1007:减少物品
+1008:血量变更(随机)
+1009:损失最大血量(随机)
+1010:增加随机队友属性</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{42BB6B27-5476-4178-99D8-3730F50A7051}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">作者:
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="68">
   <si>
     <t>id</t>
   </si>
@@ -120,10 +198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[&lt;color=#b5a430&gt;银两&lt;/c&gt;+]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>unlockPoint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,18 +210,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[最大血量+,轻功+]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[家传绝学]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[奇遇]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[战斗]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -165,6 +231,181 @@
   </si>
   <si>
     <t>70001,80006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳下悬崖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001,1004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|5,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60001,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[&lt;color=#b5a430&gt;银两&lt;/c&gt;+30]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60008,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[狮子搏兔]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[黑虎掏心]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[扫堂腿]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[通臂拳]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[伏龙掌]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[猛虎拳]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我有王八拳足矣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>[好友加入]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30102,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30103,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30101,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30105,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30048,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30049,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002,80001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60001,-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001,60001,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[最大生命+,轻功+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[最大生命+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1008,1009,1003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原地休息-练拳脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原地休息-练剑法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原地休息-练内功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原地休息-练暗器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-20|5|60008,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,25 +762,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="57.44140625" customWidth="1"/>
     <col min="3" max="3" width="25.21875" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="35.88671875" customWidth="1"/>
-    <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
+    <col min="4" max="5" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="35.88671875" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -552,23 +793,26 @@
       <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,47 +820,55 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>90001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>80002</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="1"/>
+        <v>80009</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>90002</v>
       </c>
@@ -627,15 +879,20 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>80002</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="1"/>
+        <v>80010</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>90003</v>
       </c>
@@ -646,59 +903,70 @@
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>80002</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="1"/>
+        <v>80011</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="G5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>90004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>80002</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="3">
+        <v>80012</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>90005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>90006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -706,16 +974,23 @@
       <c r="D8" s="1">
         <v>80005</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>90007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1">
         <v>4</v>
@@ -724,165 +999,318 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>90008</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>80013</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>90009</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>80008</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>90010</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>80002</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>90011</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>80002</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>90012</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>80002</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>90013</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>80002</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>90014</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>80002</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>90015</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>80002</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>90016</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>80002</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="1">
+        <v>4</v>
+      </c>
+      <c r="H18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>90017</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>80013</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>90018</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>80013</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>90019</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>80013</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>90020</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="1">
+        <v>80013</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>90021</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>90022</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>90023</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>90024</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>90025</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>90026</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>90027</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>90028</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>90029</v>
       </c>
